--- a/biology/Botanique/Osier_(matériau)/Osier_(matériau).xlsx
+++ b/biology/Botanique/Osier_(matériau)/Osier_(matériau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Osier_(mat%C3%A9riau)</t>
+          <t>Osier_(matériau)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'osier est le matériau de premier ordre de la vannerie. Il s'agit des jeunes pousses de saules souples obtenues par une coupe annuelle hivernale[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'osier est le matériau de premier ordre de la vannerie. Il s'agit des jeunes pousses de saules souples obtenues par une coupe annuelle hivernale.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Osier_(mat%C3%A9riau)</t>
+          <t>Osier_(matériau)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Différents types d'osier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On distingue ainsi :
 l'osier vert : c'est  l'osier fraîchement récolté. Il est utilisé pour le palissage notamment des vignes, et commercialisé sous l'appellation de bottes jardinières. Il ne doit pas être utilisé frais pour la confection de paniers car après dessiccation, ces paniers perdent leur solidité.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Osier_(mat%C3%A9riau)</t>
+          <t>Osier_(matériau)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, la récolte des osiers sauvages a perduré jusque dans les années 1950 autour de Vallabrègues, dans le delta du Rhône, ainsi qu'en témoigne chaque année la fête de la vannerie dans ce village. 
 La culture de l'osier, la saliciculture aujourd'hui appelée osiériculture, a très vite remplacé la cueillette sauvage car les besoins de matière première pour la vannerie étaient très importants. Un panier rond de trente centimètres de diamètre par exemple nécessite plus d'une centaine de brins de différentes longueurs. Déjà, Caton l'Ancien dans son traité d'économie rurale (dès son premier chapitre) met la récolte d'osier immédiatement après la vigne et le jardin par la valeur de son produit. 
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Osier_(mat%C3%A9riau)</t>
+          <t>Osier_(matériau)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,11 +595,13 @@
           <t>Préparation de l'osier</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Après récolte, les osiers sont triés par taille généralement de 20 en 20 cm. Les longueurs utiles varient de 0,60 m à 2,40 m. Puis ils sont mis en bottes, et alors soit ces osiers verts sont séchés naturellement à l'air libre, soit les paquets sont placés debout les pieds des brins dans l'eau en vue de l'écorçage pour la production d'osier blanc.
 Au moment de leur utilisation, la cime des brins, trop fragile, est coupée au couteau ou au sécateur et chaque brin peut être utilisé soit à l'état rond, soit fendu en 3 ou 4 quartiers avec un fendoir, ce qui permet d'obtenir des lamelles (d'où une économie de matériau, et cela permet aussi d'utiliser de grosses tiges presque inutilisables sinon). Chaque lamelle peut aussi être amincie et calibrée avec la plane et le trusquin en épaisseur et en largeur et prend alors le nom d'éclisse.
-Des règles de normalisation[2] de la présentation de l'osier pour la vente (instituées par l'Institut National de Normalisation du Chili[3]) ont été recommandées au niveau international.
+Des règles de normalisation de la présentation de l'osier pour la vente (instituées par l'Institut National de Normalisation du Chili) ont été recommandées au niveau international.
 </t>
         </is>
       </c>
